--- a/INEG_2313_Anderson_Bektemirov.xlsx
+++ b/INEG_2313_Anderson_Bektemirov.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Part A</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>95% lower CI</t>
+  </si>
+  <si>
+    <t>Min:</t>
+  </si>
+  <si>
+    <t>Max:</t>
   </si>
 </sst>
 </file>
@@ -1713,11 +1719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199688576"/>
-        <c:axId val="52846976"/>
+        <c:axId val="196209280"/>
+        <c:axId val="197673344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199688576"/>
+        <c:axId val="196209280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52846976"/>
+        <c:crossAx val="197673344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1736,7 +1742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52846976"/>
+        <c:axId val="197673344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14000"/>
@@ -1748,7 +1754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199688576"/>
+        <c:crossAx val="196209280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3329,11 +3335,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57023488"/>
-        <c:axId val="57037568"/>
+        <c:axId val="198472832"/>
+        <c:axId val="198474368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57023488"/>
+        <c:axId val="198472832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,7 +3348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57037568"/>
+        <c:crossAx val="198474368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3352,7 +3358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57037568"/>
+        <c:axId val="198474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90000"/>
@@ -3364,7 +3370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57023488"/>
+        <c:crossAx val="198472832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6484,16 +6490,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59083776"/>
-        <c:axId val="59082240"/>
+        <c:axId val="198491520"/>
+        <c:axId val="198518272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59083776"/>
+        <c:axId val="198491520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6517,14 +6523,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59082240"/>
+        <c:crossAx val="198518272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59082240"/>
+        <c:axId val="198518272"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6552,7 +6558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59083776"/>
+        <c:crossAx val="198491520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9655,11 +9661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64124800"/>
-        <c:axId val="64123264"/>
+        <c:axId val="199055232"/>
+        <c:axId val="199057408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64124800"/>
+        <c:axId val="199055232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9693,12 +9699,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64123264"/>
+        <c:crossAx val="199057408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64123264"/>
+        <c:axId val="199057408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9728,7 +9734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64124800"/>
+        <c:crossAx val="199055232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10175,7 +10181,7 @@
   <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D3" sqref="D3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10240,11 +10246,11 @@
         <v>642</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <f>MAX(A2:A501)-MIN(A2:A501)</f>
-        <v>13632</v>
+        <f>MIN(A2:A501)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10252,21 +10258,35 @@
         <v>809</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <f>_xlfn.STDEV.S(A2:A501)</f>
-        <v>1255.3204991264399</v>
+        <f>MAX(A2:A501)</f>
+        <v>13654</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>189</v>
       </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>MAX(A2:A501)-MIN(A2:A501)</f>
+        <v>13632</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>251</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.STDEV.S(A2:A501)</f>
+        <v>1255.3204991264399</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12741,7 +12761,7 @@
   <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12800,11 +12820,11 @@
         <v>23283</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <f>MAX(A2:A501)-MIN(A2:A501)</f>
-        <v>85823</v>
+        <f>MIN(A2:A501)</f>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12812,21 +12832,35 @@
         <v>6453</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <f>_xlfn.STDEV.S(A2:A501)</f>
-        <v>23877.855665505838</v>
+        <f>MAX(A2:A501)</f>
+        <v>86218</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12858</v>
       </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>MAX(A2:A501)-MIN(A2:A501)</f>
+        <v>85823</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>66030</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.STDEV.S(A2:A501)</f>
+        <v>23877.855665505838</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -27368,8 +27402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29921,4060 +29955,2557 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5.1483816808084448E-5</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF(A2:A501, TRUE)</f>
+        <v>36</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(B2:B501, TRUE)</f>
-        <v>36</v>
-      </c>
-      <c r="E2">
         <f>(36-500*(0.1))/(SQRT(500*(0.1)*(1-0.1)))</f>
         <v>-2.0869967789998034</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <f>_xlfn.NORM.DIST(2.087,0,1,TRUE)</f>
         <v>0.98155593272673347</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <f>(36/500)-(1.645*SQRT((36/500)*(1-(36/500))/500))</f>
         <v>5.2983913841171203E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.2579661601085377E-4</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.2607365510818322E-4</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.8104458882671768E-4</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4.8138805751263281E-4</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6.5465484608284719E-4</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>9.2576445071090863E-4</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9.6416227284035205E-4</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.2393173129544577E-3</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.3335573739174933E-3</v>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.5763563670553316E-3</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.7250462425923985E-3</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2.1051636852621458E-3</v>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2.1379980829666634E-3</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2.1729408519075566E-3</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2.1752786131443713E-3</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2.1962514258438981E-3</v>
-      </c>
-      <c r="B18" t="b">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2.2780005384710478E-3</v>
-      </c>
-      <c r="B19" t="b">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2.3175630694446392E-3</v>
-      </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2.4007092047411138E-3</v>
-      </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2.4338899695619531E-3</v>
-      </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2.4683965787207773E-3</v>
-      </c>
-      <c r="B23" t="b">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2.5840569096170496E-3</v>
-      </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2.7241347963591345E-3</v>
-      </c>
-      <c r="B25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2.7378245341032059E-3</v>
-      </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2.7543302704833295E-3</v>
-      </c>
-      <c r="B27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2.9653113825677258E-3</v>
-      </c>
-      <c r="B28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3.0650076881786337E-3</v>
-      </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3.088845776785476E-3</v>
-      </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3.1511380415468748E-3</v>
-      </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3.2287091029613579E-3</v>
-      </c>
-      <c r="B32" t="b">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3.2714820448270787E-3</v>
-      </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3.3384381999859158E-3</v>
-      </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3.4111694732481546E-3</v>
-      </c>
-      <c r="B35" t="b">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3.5411500032587195E-3</v>
-      </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3.725936459224588E-3</v>
-      </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3.7639209723633327E-3</v>
-      </c>
-      <c r="B38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3.7940417704634966E-3</v>
-      </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3.9123622296260985E-3</v>
-      </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3.9996524092617003E-3</v>
-      </c>
-      <c r="B41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4.001862473210549E-3</v>
-      </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>4.0022065692195685E-3</v>
-      </c>
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>4.0226931454883097E-3</v>
-      </c>
-      <c r="B44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>4.3385313674034753E-3</v>
-      </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>4.437783062200662E-3</v>
-      </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4.5669752635176808E-3</v>
-      </c>
-      <c r="B47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>4.679240873960766E-3</v>
-      </c>
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>4.797335949072834E-3</v>
-      </c>
-      <c r="B49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>5.026090705018138E-3</v>
-      </c>
-      <c r="B50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>5.1452767987618664E-3</v>
-      </c>
-      <c r="B51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5.2522654485468445E-3</v>
-      </c>
-      <c r="B52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>5.2652603375347162E-3</v>
-      </c>
-      <c r="B53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>5.3751069704890408E-3</v>
-      </c>
-      <c r="B54" t="b">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>5.8189686252773098E-3</v>
-      </c>
-      <c r="B55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>5.897423569047433E-3</v>
-      </c>
-      <c r="B56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>5.9443515994616059E-3</v>
-      </c>
-      <c r="B57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>6.0703030341621167E-3</v>
-      </c>
-      <c r="B58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>6.1241259118797187E-3</v>
-      </c>
-      <c r="B59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>6.1910514084789758E-3</v>
-      </c>
-      <c r="B60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>6.2786006920275694E-3</v>
-      </c>
-      <c r="B61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>6.3565918471151228E-3</v>
-      </c>
-      <c r="B62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>6.3966944127384906E-3</v>
-      </c>
-      <c r="B63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>6.4296335172528973E-3</v>
-      </c>
-      <c r="B64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>6.4625458235709754E-3</v>
-      </c>
-      <c r="B65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>6.5831787317409685E-3</v>
-      </c>
-      <c r="B66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>6.658001063134078E-3</v>
-      </c>
-      <c r="B67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>6.8273313457631879E-3</v>
-      </c>
-      <c r="B68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>6.8770136943686611E-3</v>
-      </c>
-      <c r="B69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>6.9110704348281926E-3</v>
-      </c>
-      <c r="B70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>6.9292009150846434E-3</v>
-      </c>
-      <c r="B71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>6.9519961108753803E-3</v>
-      </c>
-      <c r="B72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>7.0664646084628302E-3</v>
-      </c>
-      <c r="B73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>7.1622473879217052E-3</v>
-      </c>
-      <c r="B74" t="b">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>7.3252129867810156E-3</v>
-      </c>
-      <c r="B75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>7.3535003568434565E-3</v>
-      </c>
-      <c r="B76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>7.5123723998103964E-3</v>
-      </c>
-      <c r="B77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>7.5583980164233289E-3</v>
-      </c>
-      <c r="B78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>7.6205165753792103E-3</v>
-      </c>
-      <c r="B79" t="b">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>7.8368606418286468E-3</v>
-      </c>
-      <c r="B80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>8.007212242645334E-3</v>
-      </c>
-      <c r="B81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>8.0356803133440069E-3</v>
-      </c>
-      <c r="B82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>8.4007039209269552E-3</v>
-      </c>
-      <c r="B83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>8.4655512005594735E-3</v>
-      </c>
-      <c r="B84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>8.4967226639263149E-3</v>
-      </c>
-      <c r="B85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>8.5984736739396217E-3</v>
-      </c>
-      <c r="B86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>8.8447513301431746E-3</v>
-      </c>
-      <c r="B87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>8.9561926590425722E-3</v>
-      </c>
-      <c r="B88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>9.0152368848857023E-3</v>
-      </c>
-      <c r="B89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>9.2863945157928285E-3</v>
-      </c>
-      <c r="B90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>9.2972223764430373E-3</v>
-      </c>
-      <c r="B91" t="b">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>9.4451794081840124E-3</v>
-      </c>
-      <c r="B92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>9.4607595214298845E-3</v>
-      </c>
-      <c r="B93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>9.5109583020814847E-3</v>
-      </c>
-      <c r="B94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>9.5959395861207053E-3</v>
-      </c>
-      <c r="B95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>9.6746656038402268E-3</v>
-      </c>
-      <c r="B96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>9.8278449646314048E-3</v>
-      </c>
-      <c r="B97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>9.83190374765186E-3</v>
-      </c>
-      <c r="B98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>9.8988861484893276E-3</v>
-      </c>
-      <c r="B99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1.0286439128750824E-2</v>
-      </c>
-      <c r="B100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1.0404991300483446E-2</v>
-      </c>
-      <c r="B101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1.0500964481833908E-2</v>
-      </c>
-      <c r="B102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1.0719866655353294E-2</v>
-      </c>
-      <c r="B103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1.0896150930819082E-2</v>
-      </c>
-      <c r="B104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1.1168461048860601E-2</v>
-      </c>
-      <c r="B105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1.1278461749090418E-2</v>
-      </c>
-      <c r="B106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1.1283326182638498E-2</v>
-      </c>
-      <c r="B107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1.1443879749952535E-2</v>
-      </c>
-      <c r="B108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1.1548950770314814E-2</v>
-      </c>
-      <c r="B109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>1.1680016126247472E-2</v>
-      </c>
-      <c r="B110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1.1691892811599325E-2</v>
-      </c>
-      <c r="B111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>1.175029737519262E-2</v>
-      </c>
-      <c r="B112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1.2036166554416083E-2</v>
-      </c>
-      <c r="B113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>1.2506844577609311E-2</v>
-      </c>
-      <c r="B114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1.2643603143162596E-2</v>
-      </c>
-      <c r="B115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1.2671713098277637E-2</v>
-      </c>
-      <c r="B116" t="b">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1.2677298786131108E-2</v>
-      </c>
-      <c r="B117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1.2778141066266291E-2</v>
-      </c>
-      <c r="B118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1.2893487944670379E-2</v>
-      </c>
-      <c r="B119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1.2936797397389399E-2</v>
-      </c>
-      <c r="B120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1.2944595796582581E-2</v>
-      </c>
-      <c r="B121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1.3043602904663554E-2</v>
-      </c>
-      <c r="B122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1.3103196550421914E-2</v>
-      </c>
-      <c r="B123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1.3118126679018904E-2</v>
-      </c>
-      <c r="B124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1.3164779228518997E-2</v>
-      </c>
-      <c r="B125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1.3237566610161289E-2</v>
-      </c>
-      <c r="B126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1.334267750628737E-2</v>
-      </c>
-      <c r="B127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1.3354115719811266E-2</v>
-      </c>
-      <c r="B128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1.3449603518714603E-2</v>
-      </c>
-      <c r="B129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1.3502323790172133E-2</v>
-      </c>
-      <c r="B130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1.3646185838749103E-2</v>
-      </c>
-      <c r="B131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1.3698370301514884E-2</v>
-      </c>
-      <c r="B132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1.378743942517402E-2</v>
-      </c>
-      <c r="B133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1.3811394510208741E-2</v>
-      </c>
-      <c r="B134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1.3825624368545841E-2</v>
-      </c>
-      <c r="B135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1.3856980778944483E-2</v>
-      </c>
-      <c r="B136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1.4112245574682381E-2</v>
-      </c>
-      <c r="B137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1.4127439066388581E-2</v>
-      </c>
-      <c r="B138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1.4218168893772032E-2</v>
-      </c>
-      <c r="B139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1.4318508519052919E-2</v>
-      </c>
-      <c r="B140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1.435154795762783E-2</v>
-      </c>
-      <c r="B141" t="b">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1.4384236464663025E-2</v>
-      </c>
-      <c r="B142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1.4711694656199481E-2</v>
-      </c>
-      <c r="B143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1.4846990179221531E-2</v>
-      </c>
-      <c r="B144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1.4853705823206664E-2</v>
-      </c>
-      <c r="B145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1.4881608542847924E-2</v>
-      </c>
-      <c r="B146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1.4892535456345057E-2</v>
-      </c>
-      <c r="B147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1.4927890487300144E-2</v>
-      </c>
-      <c r="B148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1.4973048894903584E-2</v>
-      </c>
-      <c r="B149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1.5067740592300316E-2</v>
-      </c>
-      <c r="B150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1.5101407958693303E-2</v>
-      </c>
-      <c r="B151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1.5105213741307799E-2</v>
-      </c>
-      <c r="B152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1.5161186137253257E-2</v>
-      </c>
-      <c r="B153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1.5176380566000569E-2</v>
-      </c>
-      <c r="B154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1.5235046175063882E-2</v>
-      </c>
-      <c r="B155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1.5422562111749749E-2</v>
-      </c>
-      <c r="B156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1.5512071822063711E-2</v>
-      </c>
-      <c r="B157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1.5694276118231931E-2</v>
-      </c>
-      <c r="B158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1.5752852295725761E-2</v>
-      </c>
-      <c r="B159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1.5794528228359028E-2</v>
-      </c>
-      <c r="B160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>1.5938967866377385E-2</v>
-      </c>
-      <c r="B161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1.6004200303653904E-2</v>
-      </c>
-      <c r="B162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>1.656589099605621E-2</v>
-      </c>
-      <c r="B163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1.6567704954235651E-2</v>
-      </c>
-      <c r="B164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1.6766120363813641E-2</v>
-      </c>
-      <c r="B165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1.7060087686239012E-2</v>
-      </c>
-      <c r="B166" t="b">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1.715072598310019E-2</v>
-      </c>
-      <c r="B167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1.7167581652971498E-2</v>
-      </c>
-      <c r="B168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1.741947688383183E-2</v>
-      </c>
-      <c r="B169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1.7485311503193768E-2</v>
-      </c>
-      <c r="B170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1.7530754798168235E-2</v>
-      </c>
-      <c r="B171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1.7544653816677691E-2</v>
-      </c>
-      <c r="B172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1.7715773661165723E-2</v>
-      </c>
-      <c r="B173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1.7972990013182311E-2</v>
-      </c>
-      <c r="B174" t="b">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1.8258807436491553E-2</v>
-      </c>
-      <c r="B175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1.827748304313348E-2</v>
-      </c>
-      <c r="B176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1.8618660029641187E-2</v>
-      </c>
-      <c r="B177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1.8646155932753317E-2</v>
-      </c>
-      <c r="B178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1.8877382437870516E-2</v>
-      </c>
-      <c r="B179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1.8903958750291383E-2</v>
-      </c>
-      <c r="B180" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1.9001632683410707E-2</v>
-      </c>
-      <c r="B181" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1.9227022824162887E-2</v>
-      </c>
-      <c r="B182" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1.9315434209619675E-2</v>
-      </c>
-      <c r="B183" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1.9463756228991769E-2</v>
-      </c>
-      <c r="B184" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1.9680698552390408E-2</v>
-      </c>
-      <c r="B185" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1.9982280248174389E-2</v>
-      </c>
-      <c r="B186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>2.0042293292840574E-2</v>
-      </c>
-      <c r="B187" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>2.0104707159437907E-2</v>
-      </c>
-      <c r="B188" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>2.013757337727673E-2</v>
-      </c>
-      <c r="B189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>2.0199792822494289E-2</v>
-      </c>
-      <c r="B190" t="b">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>2.0332221657975325E-2</v>
-      </c>
-      <c r="B191" t="b">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>2.0457858201856305E-2</v>
-      </c>
-      <c r="B192" t="b">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>2.0620817589482976E-2</v>
-      </c>
-      <c r="B193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>2.0826615104756807E-2</v>
-      </c>
-      <c r="B194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>2.0835831828721951E-2</v>
-      </c>
-      <c r="B195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>2.1216175733076326E-2</v>
-      </c>
-      <c r="B196" t="b">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>2.1259293703900117E-2</v>
-      </c>
-      <c r="B197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>2.1319443419927864E-2</v>
-      </c>
-      <c r="B198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>2.1452508414494531E-2</v>
-      </c>
-      <c r="B199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>2.1712081709616027E-2</v>
-      </c>
-      <c r="B200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>2.1866548824244769E-2</v>
-      </c>
-      <c r="B201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>2.2001473495733448E-2</v>
-      </c>
-      <c r="B202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>2.2001715079373652E-2</v>
-      </c>
-      <c r="B203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>2.2481304046576778E-2</v>
-      </c>
-      <c r="B204" t="b">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>2.2632864487863724E-2</v>
-      </c>
-      <c r="B205" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>2.3001716441401809E-2</v>
-      </c>
-      <c r="B206" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>2.3055991414757004E-2</v>
-      </c>
-      <c r="B207" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>2.308274102076957E-2</v>
-      </c>
-      <c r="B208" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>2.3370686094283832E-2</v>
-      </c>
-      <c r="B209" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>2.3401131823144072E-2</v>
-      </c>
-      <c r="B210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>2.3426768605082526E-2</v>
-      </c>
-      <c r="B211" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>2.3618899549478378E-2</v>
-      </c>
-      <c r="B212" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>2.3964279225316187E-2</v>
-      </c>
-      <c r="B213" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>2.3964297800804779E-2</v>
-      </c>
-      <c r="B214" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>2.4056272980422344E-2</v>
-      </c>
-      <c r="B215" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>2.4117073794205246E-2</v>
-      </c>
-      <c r="B216" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>2.4605352084812515E-2</v>
-      </c>
-      <c r="B217" t="b">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>2.4618572783864368E-2</v>
-      </c>
-      <c r="B218" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>2.4661837060133029E-2</v>
-      </c>
-      <c r="B219" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>2.4716390048234227E-2</v>
-      </c>
-      <c r="B220" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>2.4794585852848217E-2</v>
-      </c>
-      <c r="B221" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>2.4901893210330317E-2</v>
-      </c>
-      <c r="B222" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>2.4937058173765903E-2</v>
-      </c>
-      <c r="B223" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>2.5029278042167813E-2</v>
-      </c>
-      <c r="B224" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>2.5325785763482878E-2</v>
-      </c>
-      <c r="B225" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>2.544507608976454E-2</v>
-      </c>
-      <c r="B226" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>2.556432170831624E-2</v>
-      </c>
-      <c r="B227" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>2.5567331061109977E-2</v>
-      </c>
-      <c r="B228" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>2.5796596122048765E-2</v>
-      </c>
-      <c r="B229" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>2.6095908162228065E-2</v>
-      </c>
-      <c r="B230" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>2.6131645659583813E-2</v>
-      </c>
-      <c r="B231" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>2.6157799538626736E-2</v>
-      </c>
-      <c r="B232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>2.6260579783657922E-2</v>
-      </c>
-      <c r="B233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>2.6323477162164877E-2</v>
-      </c>
-      <c r="B234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>2.6413044071168401E-2</v>
-      </c>
-      <c r="B235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>2.6724936017467948E-2</v>
-      </c>
-      <c r="B236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>2.6739220974416722E-2</v>
-      </c>
-      <c r="B237" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>2.6745511651543596E-2</v>
-      </c>
-      <c r="B238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>2.6748899366901391E-2</v>
-      </c>
-      <c r="B239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>2.6822790688572629E-2</v>
-      </c>
-      <c r="B240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>2.6887506478609491E-2</v>
-      </c>
-      <c r="B241" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>2.7161231895051818E-2</v>
-      </c>
-      <c r="B242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>2.7173379242634743E-2</v>
-      </c>
-      <c r="B243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>2.7179547746450039E-2</v>
-      </c>
-      <c r="B244" t="b">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>2.7240273177038254E-2</v>
-      </c>
-      <c r="B245" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>2.7354898372967562E-2</v>
-      </c>
-      <c r="B246" t="b">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>2.7693732943405602E-2</v>
-      </c>
-      <c r="B247" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>2.7779702926873595E-2</v>
-      </c>
-      <c r="B248" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>2.779229417968121E-2</v>
-      </c>
-      <c r="B249" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>2.780427217611936E-2</v>
-      </c>
-      <c r="B250" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>2.7814786784407075E-2</v>
-      </c>
-      <c r="B251" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>2.7870523089494226E-2</v>
-      </c>
-      <c r="B252" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>2.7940575874735973E-2</v>
-      </c>
-      <c r="B253" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>2.794113367086748E-2</v>
-      </c>
-      <c r="B254" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>2.8044816074500267E-2</v>
-      </c>
-      <c r="B255" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>2.8131605096503698E-2</v>
-      </c>
-      <c r="B256" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>2.822186522086656E-2</v>
-      </c>
-      <c r="B257" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>2.8483809495940204E-2</v>
-      </c>
-      <c r="B258" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>2.8651723507487792E-2</v>
-      </c>
-      <c r="B259" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>2.8656730118168605E-2</v>
-      </c>
-      <c r="B260" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>2.8795606666833007E-2</v>
-      </c>
-      <c r="B261" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>2.8873700710690176E-2</v>
-      </c>
-      <c r="B262" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>2.8919273024124226E-2</v>
-      </c>
-      <c r="B263" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>2.8973825406451437E-2</v>
-      </c>
-      <c r="B264" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>2.8994748318400543E-2</v>
-      </c>
-      <c r="B265" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>2.918309952442355E-2</v>
-      </c>
-      <c r="B266" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>2.9245482872325312E-2</v>
-      </c>
-      <c r="B267" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>2.9292229600347497E-2</v>
-      </c>
-      <c r="B268" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>2.9294025500466114E-2</v>
-      </c>
-      <c r="B269" t="b">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>2.9712574638554368E-2</v>
-      </c>
-      <c r="B270" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>2.9829403658612308E-2</v>
-      </c>
-      <c r="B271" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>2.984447650971267E-2</v>
-      </c>
-      <c r="B272" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>3.0034498103612584E-2</v>
-      </c>
-      <c r="B273" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>3.0279310252448122E-2</v>
-      </c>
-      <c r="B274" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>3.0475375975406616E-2</v>
-      </c>
-      <c r="B275" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>3.0495661907047666E-2</v>
-      </c>
-      <c r="B276" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>3.0520751545035418E-2</v>
-      </c>
-      <c r="B277" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>3.0669211409542596E-2</v>
-      </c>
-      <c r="B278" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>3.0879784976766689E-2</v>
-      </c>
-      <c r="B279" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>3.1100453880423817E-2</v>
-      </c>
-      <c r="B280" t="b">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>3.1211464682654233E-2</v>
-      </c>
-      <c r="B281" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>3.1318109497635582E-2</v>
-      </c>
-      <c r="B282" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>3.1444246890587446E-2</v>
-      </c>
-      <c r="B283" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>3.1554621278484851E-2</v>
-      </c>
-      <c r="B284" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>3.1587890277098185E-2</v>
-      </c>
-      <c r="B285" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>3.1608104535107762E-2</v>
-      </c>
-      <c r="B286" t="b">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>3.1650711793432151E-2</v>
-      </c>
-      <c r="B287" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>3.1743044294805456E-2</v>
-      </c>
-      <c r="B288" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>3.1815985290284621E-2</v>
-      </c>
-      <c r="B289" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>3.2039000578788612E-2</v>
-      </c>
-      <c r="B290" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>3.2128853320538941E-2</v>
-      </c>
-      <c r="B291" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>3.2160197102742649E-2</v>
-      </c>
-      <c r="B292" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>3.2253087138337411E-2</v>
-      </c>
-      <c r="B293" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>3.2266633057121519E-2</v>
-      </c>
-      <c r="B294" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>3.2544403766915586E-2</v>
-      </c>
-      <c r="B295" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>3.2656896816801395E-2</v>
-      </c>
-      <c r="B296" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>3.2749061588098649E-2</v>
-      </c>
-      <c r="B297" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>3.2825159679902183E-2</v>
-      </c>
-      <c r="B298" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>3.296313386990013E-2</v>
-      </c>
-      <c r="B299" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>3.3055571612797041E-2</v>
-      </c>
-      <c r="B300" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>3.3164797724675066E-2</v>
-      </c>
-      <c r="B301" t="b">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>3.3229047091410502E-2</v>
-      </c>
-      <c r="B302" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>3.3241171508363365E-2</v>
-      </c>
-      <c r="B303" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>3.3313613693992439E-2</v>
-      </c>
-      <c r="B304" t="b">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>3.3395457151661812E-2</v>
-      </c>
-      <c r="B305" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>3.3449087628108498E-2</v>
-      </c>
-      <c r="B306" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>3.3475805643414236E-2</v>
-      </c>
-      <c r="B307" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>3.356429376535075E-2</v>
-      </c>
-      <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>3.3668355899886593E-2</v>
-      </c>
-      <c r="B309" t="b">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>3.369225327447456E-2</v>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>3.3693828372809764E-2</v>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>3.3763433883254867E-2</v>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>3.3987359860803479E-2</v>
-      </c>
-      <c r="B313" t="b">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>3.4046855677042021E-2</v>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>3.404699457846827E-2</v>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>3.4079856494703575E-2</v>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>3.4081705883997171E-2</v>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>3.4349164738301519E-2</v>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>3.4743312805809001E-2</v>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>3.4774790924692378E-2</v>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>3.484003011896486E-2</v>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>3.4978050046463038E-2</v>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>3.4993753237925418E-2</v>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>3.5013859211990184E-2</v>
-      </c>
-      <c r="B324" t="b">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>3.5028802278564974E-2</v>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>3.5348768788607376E-2</v>
-      </c>
-      <c r="B326" t="b">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>3.5527919088236937E-2</v>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>3.5548287553047175E-2</v>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>3.5592902166741935E-2</v>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>3.5667163417028913E-2</v>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>3.5983492703101638E-2</v>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>3.6037724759211409E-2</v>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>3.608097266575494E-2</v>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>3.6144595345338204E-2</v>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>3.6264377534344305E-2</v>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>3.6273805784062807E-2</v>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>3.6315670671649092E-2</v>
-      </c>
-      <c r="B337" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>3.6386124495103367E-2</v>
-      </c>
-      <c r="B338" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>3.6457344866485109E-2</v>
-      </c>
-      <c r="B339" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>3.6702468717137338E-2</v>
-      </c>
-      <c r="B340" t="b">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>3.6707053110541787E-2</v>
-      </c>
-      <c r="B341" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>3.6734755051045398E-2</v>
-      </c>
-      <c r="B342" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>3.6808040484832327E-2</v>
-      </c>
-      <c r="B343" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>3.6895284531294648E-2</v>
-      </c>
-      <c r="B344" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>3.7006703972478405E-2</v>
-      </c>
-      <c r="B345" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>3.7201524828695764E-2</v>
-      </c>
-      <c r="B346" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>3.7338698851110297E-2</v>
-      </c>
-      <c r="B347" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <v>3.7615253087913025E-2</v>
-      </c>
-      <c r="B348" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>3.7669189170626449E-2</v>
-      </c>
-      <c r="B349" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>3.7739774632203127E-2</v>
-      </c>
-      <c r="B350" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>3.7861792792688753E-2</v>
-      </c>
-      <c r="B351" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>3.802517569967323E-2</v>
-      </c>
-      <c r="B352" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>3.8025771749145121E-2</v>
-      </c>
-      <c r="B353" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>3.807581964473572E-2</v>
-      </c>
-      <c r="B354" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>3.8353216509401045E-2</v>
-      </c>
-      <c r="B355" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>3.8399062607868739E-2</v>
-      </c>
-      <c r="B356" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>3.8481933859662476E-2</v>
-      </c>
-      <c r="B357" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>3.8650268952805544E-2</v>
-      </c>
-      <c r="B358" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>3.8691121811112561E-2</v>
-      </c>
-      <c r="B359" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>3.8696011070093461E-2</v>
-      </c>
-      <c r="B360" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>3.8719592850889106E-2</v>
-      </c>
-      <c r="B361" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>3.8751985207470141E-2</v>
-      </c>
-      <c r="B362" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>3.8828411014658282E-2</v>
-      </c>
-      <c r="B363" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>3.921263256038432E-2</v>
-      </c>
-      <c r="B364" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>3.9213529650525047E-2</v>
-      </c>
-      <c r="B365" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>3.9323339024208592E-2</v>
-      </c>
-      <c r="B366" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>3.9351990560854255E-2</v>
-      </c>
-      <c r="B367" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>3.9483849113600367E-2</v>
-      </c>
-      <c r="B368" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>3.9576018053833373E-2</v>
-      </c>
-      <c r="B369" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>3.9666257090363644E-2</v>
-      </c>
-      <c r="B370" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>3.9711353172833364E-2</v>
-      </c>
-      <c r="B371" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>3.9742135424717051E-2</v>
-      </c>
-      <c r="B372" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>3.9774673719327414E-2</v>
-      </c>
-      <c r="B373" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>3.9828575577229186E-2</v>
-      </c>
-      <c r="B374" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>3.9840637182203542E-2</v>
-      </c>
-      <c r="B375" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>3.984580398988935E-2</v>
-      </c>
-      <c r="B376" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>3.9897560278501998E-2</v>
-      </c>
-      <c r="B377" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>3.9956005630085278E-2</v>
-      </c>
-      <c r="B378" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>4.0136621964141805E-2</v>
-      </c>
-      <c r="B379" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>4.0827506109580858E-2</v>
-      </c>
-      <c r="B380" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>4.0841381011931799E-2</v>
-      </c>
-      <c r="B381" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>4.0971168014877102E-2</v>
-      </c>
-      <c r="B382" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <v>4.0978455338111952E-2</v>
-      </c>
-      <c r="B383" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <v>4.1268203955562188E-2</v>
-      </c>
-      <c r="B384" t="b">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>4.1491674171160065E-2</v>
-      </c>
-      <c r="B385" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>4.1520451860823093E-2</v>
-      </c>
-      <c r="B386" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>4.1596841710641042E-2</v>
-      </c>
-      <c r="B387" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>4.1604602708310234E-2</v>
-      </c>
-      <c r="B388" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>4.1620942112757908E-2</v>
-      </c>
-      <c r="B389" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>4.1627455977689909E-2</v>
-      </c>
-      <c r="B390" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>4.1645133814746438E-2</v>
-      </c>
-      <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>4.1749322390632337E-2</v>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>4.1777891777211695E-2</v>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>4.2045651061473621E-2</v>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <v>4.2092982081494257E-2</v>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <v>4.2251088858116681E-2</v>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>4.251252195552635E-2</v>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <v>4.2517027224919568E-2</v>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>4.2697287540992113E-2</v>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>4.3121715883337686E-2</v>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>4.3174622822995001E-2</v>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>4.331352759100382E-2</v>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>4.3346424087247204E-2</v>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404">
-        <v>4.3567457778255991E-2</v>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405">
-        <v>4.3657205806507005E-2</v>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>4.3670744970285225E-2</v>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>4.3785522514647957E-2</v>
-      </c>
-      <c r="B407" t="b">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>4.3938861650591243E-2</v>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>4.3989866029231273E-2</v>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>4.4001929690533736E-2</v>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>4.4522773659806725E-2</v>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>4.4660853971831393E-2</v>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>4.4782555024700854E-2</v>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>4.4834184455262438E-2</v>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>4.4858315944569682E-2</v>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <v>4.4897432921772062E-2</v>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>4.4931676419431632E-2</v>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>4.4952885363555239E-2</v>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419">
-        <v>4.5031205714582634E-2</v>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420">
-        <v>4.5092771153115607E-2</v>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421">
-        <v>4.5106731658542842E-2</v>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422">
-        <v>4.5136057648695771E-2</v>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423">
-        <v>4.5654074770956399E-2</v>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424">
-        <v>4.5840591735071823E-2</v>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425">
-        <v>4.5972772253490057E-2</v>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <v>4.6200155256384101E-2</v>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>4.6351499806062568E-2</v>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428">
-        <v>4.6421778692294802E-2</v>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429">
-        <v>4.663764267762216E-2</v>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430">
-        <v>4.6659802283012364E-2</v>
-      </c>
-      <c r="B430" t="b">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431">
-        <v>4.6703782151123807E-2</v>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432">
-        <v>4.6993080593601411E-2</v>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>4.7264732129285947E-2</v>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <v>4.7271657930939903E-2</v>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>4.7315181866047329E-2</v>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>4.7332489923194609E-2</v>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>4.7967472860967475E-2</v>
-      </c>
-      <c r="B437" t="b">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>4.7993396011740797E-2</v>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>4.8236204893942869E-2</v>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>4.831926262039532E-2</v>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <v>4.8586465319550687E-2</v>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>4.8684574494403665E-2</v>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>4.8777642800090559E-2</v>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>4.9141324918748341E-2</v>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>4.9256782849748437E-2</v>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>4.933062732547E-2</v>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>4.9340664719569549E-2</v>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>4.9392548001821912E-2</v>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>4.9395041615241109E-2</v>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>4.9523620815402625E-2</v>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <v>4.9736968067273235E-2</v>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>4.9790615869781396E-2</v>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>4.9824798072780174E-2</v>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <v>5.0139723778873657E-2</v>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <v>5.0221244473351634E-2</v>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>5.0236414851612343E-2</v>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <v>5.0580314214459521E-2</v>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>5.0585214387415145E-2</v>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>5.0623309535987815E-2</v>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <v>5.0648335704160052E-2</v>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <v>5.0677424046466357E-2</v>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <v>5.0724531150814767E-2</v>
-      </c>
-      <c r="B462" t="b">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>5.0725409591946824E-2</v>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>5.112564787255458E-2</v>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465">
-        <v>5.1129611684615495E-2</v>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466">
-        <v>5.1244931507038682E-2</v>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467">
-        <v>5.1326568545576934E-2</v>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <v>5.141038259669628E-2</v>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <v>5.1589864897841453E-2</v>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <v>5.1615254884469164E-2</v>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <v>5.1642677724080044E-2</v>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472">
-        <v>5.1804159529185045E-2</v>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <v>5.2164354063698237E-2</v>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>5.217562618531002E-2</v>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475">
-        <v>5.2301265974915911E-2</v>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476">
-        <v>5.2316811552081122E-2</v>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477">
-        <v>5.2468962360592619E-2</v>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <v>5.2529986520123306E-2</v>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <v>5.2723416612912244E-2</v>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <v>5.2802311385032663E-2</v>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481">
-        <v>5.2835482001153622E-2</v>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482">
-        <v>5.2873246794944651E-2</v>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>5.2974908890011885E-2</v>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <v>5.3008869702577122E-2</v>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>5.3099657167341774E-2</v>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>5.3142749037843218E-2</v>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <v>5.3212004015179226E-2</v>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>5.3653318895049096E-2</v>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <v>5.3657922174920381E-2</v>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490">
-        <v>5.368358698285125E-2</v>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491">
-        <v>5.3696874519910898E-2</v>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>5.4400818537557405E-2</v>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>5.4698533984045783E-2</v>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494">
-        <v>5.4725559190137218E-2</v>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495">
-        <v>5.4842230970907124E-2</v>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496">
-        <v>5.4853008749853216E-2</v>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497">
-        <v>5.4885821657803202E-2</v>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498">
-        <v>5.4968071078942637E-2</v>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499">
-        <v>5.5000771877973698E-2</v>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500">
-        <v>5.5017021826755941E-2</v>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501">
-        <v>5.5230785808511706E-2</v>
-      </c>
-      <c r="B501" t="b">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B10001">
-    <sortCondition ref="A2:A10001"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INEG_2313_Anderson_Bektemirov.xlsx
+++ b/INEG_2313_Anderson_Bektemirov.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
-  <si>
-    <t>Part A</t>
-  </si>
-  <si>
-    <t># Comments</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Mean:</t>
   </si>
@@ -37,9 +31,6 @@
   </si>
   <si>
     <t>Range:</t>
-  </si>
-  <si>
-    <t># Seconds since day start</t>
   </si>
   <si>
     <t>Part 2</t>
@@ -63,9 +54,6 @@
     <t>CFi</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>Is Self Post</t>
   </si>
   <si>
@@ -84,13 +72,7 @@
     <t>S</t>
   </si>
   <si>
-    <t>Xav</t>
-  </si>
-  <si>
     <t>P-value</t>
-  </si>
-  <si>
-    <t>95% lower CI</t>
   </si>
   <si>
     <t>Min:</t>
@@ -98,12 +80,84 @@
   <si>
     <t>Max:</t>
   </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>1-500</t>
+  </si>
+  <si>
+    <t>501-1000</t>
+  </si>
+  <si>
+    <t>1001-1500</t>
+  </si>
+  <si>
+    <t>1501-2000</t>
+  </si>
+  <si>
+    <t>2001-2500</t>
+  </si>
+  <si>
+    <t>2501-3000</t>
+  </si>
+  <si>
+    <t>3001+</t>
+  </si>
+  <si>
+    <t>Posts</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>0-14400</t>
+  </si>
+  <si>
+    <t>14401-21600</t>
+  </si>
+  <si>
+    <t>21601-28800</t>
+  </si>
+  <si>
+    <t>28801-36000</t>
+  </si>
+  <si>
+    <t>36001-43200</t>
+  </si>
+  <si>
+    <t>43201-50400</t>
+  </si>
+  <si>
+    <t>50401-57600</t>
+  </si>
+  <si>
+    <t>57601-64800</t>
+  </si>
+  <si>
+    <t>64801-72000</t>
+  </si>
+  <si>
+    <t>72001-79200</t>
+  </si>
+  <si>
+    <t>79201-86400</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Seconds Since 00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +173,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,15 +198,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -175,6 +265,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Comments</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -190,1521 +300,71 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet1!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No. Comments</c:v>
+                  <c:v>Posts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$13:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501-1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1001-1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1501-2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001-2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2501-3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3001+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$501</c:f>
+              <c:f>Sheet1!$D$13:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="500"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>731</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1301</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>418</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>642</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>809</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2621</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1525</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2146</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1917</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>699</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1487</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2410</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2971</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>733</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>812</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1147</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1714</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>633</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1689</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3040</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1085</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2619</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>897</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>916</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1405</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1295</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1418</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2748</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1524</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2558</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>12574</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2705</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3395</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1123</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1051</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1158</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2225</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1875</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>636</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1886</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3197</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>898</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>761</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1168</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2668</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>4702</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>659</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2758</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1229</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1118</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>626</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1151</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1158</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2649</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2219</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2074</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1423</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>3633</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1532</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1328</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1581</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2814</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>568</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>542</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1389</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1932</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1210</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>615</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1323</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1341</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1907</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>11992</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2568</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2975</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>5242</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>3251</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>859</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>842</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2953</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>13654</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1922</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1741</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>1936</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>1868</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>6026</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2350</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>1455</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>796</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>1222</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>4156</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2394</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>829</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>1955</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>643</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>1122</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>1248</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2535</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>1148</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>873</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>734</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>933</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>1893</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2237</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>1718</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>1571</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>651</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>616</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>793</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2882</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>793</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>914</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>1492</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>437</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2761</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>1675</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>3305</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>651</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>3748</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>1603</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>2349</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>1676</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2792</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>774</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>2834</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>1678</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>1396</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>1508</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>2757</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>2242</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>764</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>1799</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>1594</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>1289</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>1644</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>1113</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>1362</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>1063</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>887</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>703</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>2121</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>529</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>1352</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>1725</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>1320</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>3367</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>1319</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>1643</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>1051</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>659</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>809</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>2118</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>668</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>1421</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>1306</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>1121</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>749</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>846</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>1279</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>775</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>2610</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>2307</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>907</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>2467</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>798</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>786</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>654</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>1313</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>4451</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>1219</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>694</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>2140</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>1914</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>1807</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>1208</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>841</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>935</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>1284</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>1931</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>748</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>2171</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>883</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>1237</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>1332</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>703</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>1155</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>458</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,52 +378,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="196209280"/>
-        <c:axId val="197673344"/>
+        <c:gapWidth val="10"/>
+        <c:axId val="182120832"/>
+        <c:axId val="182122368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196209280"/>
+        <c:axId val="182120832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Number of Comments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197673344"/>
+        <c:crossAx val="182122368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="24"/>
-        <c:tickMarkSkip val="24"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197673344"/>
+        <c:axId val="182122368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Posts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196209280"/>
+        <c:crossAx val="182120832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1791,6 +481,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Submission Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1806,1521 +511,95 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
+              <c:f>Sheet2!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time (s)</c:v>
+                  <c:v>Posts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$13:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0-14400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14401-21600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21601-28800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28801-36000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36001-43200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43201-50400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50401-57600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57601-64800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64801-72000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72001-79200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79201-86400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$501</c:f>
+              <c:f>Sheet2!$D$13:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="500"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>85619</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57799</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15588</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23283</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6453</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12858</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66030</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56137</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86218</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49245</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60858</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36378</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68863</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22641</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>49700</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30577</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>39253</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54282</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64385</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42829</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22869</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>56224</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>60448</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26758</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>65189</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60287</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>762</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2402</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>73843</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>72817</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>53210</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51619</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>58127</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84556</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>58328</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>56322</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>57653</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38936</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>56028</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>59741</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5484</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>46809</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>82314</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21028</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>70696</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>56674</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>55129</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>42933</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>39721</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4970</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>85225</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44387</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>83626</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>74852</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6520</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>52519</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>20173</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61847</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>76413</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16247</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>54357</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65325</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9464</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>80106</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>11318</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>67100</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>63803</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10509</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>48182</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>64087</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>34095</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>47286</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>55137</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>41997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>69200</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>65426</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>46825</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>80079</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7812</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>55928</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5388</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>14036</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44988</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>16816</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>25300</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>34595</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>77936</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>45571</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31760</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>75736</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44689</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>53480</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>46624</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>42764</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49477</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>15527</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>47993</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>47553</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>21015</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>72198</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44411</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>75993</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>70549</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>74111</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>37898</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>58174</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>64671</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>65027</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>19289</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>68757</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>58449</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>43486</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2702</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>85391</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>37074</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>15824</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>64577</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>48545</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1359</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>57949</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>24943</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>16113</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>64243</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>37272</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>61249</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>48018</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>26932</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>55864</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>39599</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>5932</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>49268</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>24445</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>52388</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>11665</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>71430</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>83993</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>86051</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>84952</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>61357</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>46189</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>67534</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>73592</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>18113</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>45956</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>66100</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>67046</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3013</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>19781</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>61968</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>20644</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>9839</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>60274</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>64898</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>82467</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>46547</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>83614</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>37728</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>63903</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>55962</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>15517</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>8513</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>63611</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>48190</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>20063</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>75681</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>19530</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>48069</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>66166</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>27335</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>42841</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>50964</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>40022</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>80349</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>39997</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>80593</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>10986</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>29595</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>68567</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>65477</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>49394</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>64032</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>64468</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>79369</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>15921</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>64356</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>64014</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>74454</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>12864</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>28734</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>71451</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>26617</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>51914</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1217</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>6381</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>60405</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>75463</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>61065</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>79122</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>42448</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>49530</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>68777</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>60987</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>28691</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>58162</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>47795</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>64624</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>78582</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>4598</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>86078</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>29463</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>54455</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>41442</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>46985</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>85843</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>58176</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>54932</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>54762</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>29510</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>55649</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>20166</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>74333</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>64329</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>57018</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>52515</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>5751</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>55717</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>31203</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>42483</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>63987</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>50287</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>39953</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>49889</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>12670</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>42148</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>85266</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>28488</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>85270</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>54754</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>72600</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>18950</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>49183</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>3424</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>19261</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>44880</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>79081</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>69642</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>34179</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>38508</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>55179</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>67966</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>62499</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>5271</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>3911</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>66512</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>64097</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>44516</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>42199</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>18763</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>26956</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>69563</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>1934</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>31162</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>12748</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>9927</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>52177</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>63010</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>57391</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>36333</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>65737</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>71070</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>63444</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>43483</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>74402</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>54382</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>4437</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>79552</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>53398</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>63685</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>69988</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>51682</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>62784</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>57102</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>75851</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>56101</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>65795</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>71624</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>14437</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>73918</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>51299</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>42276</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>1337</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>51496</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>69507</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>48111</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>78460</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>82358</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>48638</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>79734</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>65405</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>75331</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>55961</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>81488</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>42320</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>72245</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>70883</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>71337</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>51924</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>14461</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>41559</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>13371</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>83719</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>33420</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>13769</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>61100</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>66595</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>63104</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>80575</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>73127</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>14823</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>50641</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>59330</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>51893</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>66400</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>77776</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>42956</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>83058</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>40519</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>59108</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>22711</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>35419</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>58298</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>75737</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>74987</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>45462</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>1606</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>70415</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>45381</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>65355</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>63944</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>76044</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>53877</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>9681</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>61065</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>14469</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>34298</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>67373</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>40060</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>13820</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>84328</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>66722</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>71626</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>49959</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>58392</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>52436</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>54092</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>62302</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>75920</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>36975</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>83884</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>7844</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>44406</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>24881</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>1556</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>62299</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>6621</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>51027</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>58847</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>33751</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>10473</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>4699</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>57202</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>59361</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>47989</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>52338</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>84116</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>59699</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>43530</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>64602</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>55668</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>67610</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>4670</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>84621</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>76045</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>77704</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>61773</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>57849</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>50232</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>74908</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>58442</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>67519</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>34634</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>58141</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>81641</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>54004</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>73771</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>4747</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>74448</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>55550</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>21143</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>46304</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>76105</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>59304</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>70345</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>66098</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>64961</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>50846</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>35986</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>61928</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>38384</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>30958</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>78541</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>68361</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>78299</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>58804</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>54253</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>55059</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>46295</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>1494</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>58737</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>80207</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>65284</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>70472</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>15816</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>60196</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>42694</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>65156</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>18776</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>83562</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>8360</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>37229</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>66385</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>62776</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>71234</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>31782</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>39374</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>11462</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>6323</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>14319</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>2857</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>58417</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>39624</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>51580</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>55557</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>27545</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>6970</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>81673</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>8301</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>18690</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>63945</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>30970</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>72612</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>20921</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>44819</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>51455</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>45346</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>35783</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>70916</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>53339</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>48798</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>46145</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>19951</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>57759</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>38673</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>1196</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>85435</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>2594</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>82370</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>20195</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>20364</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>69407</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>72803</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>49441</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>53358</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>86167</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>49496</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>10498</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>6207</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>48779</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>46073</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>84147</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>63727</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>8927</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>79897</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>8040</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>78911</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>66534</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,52 +613,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="198472832"/>
-        <c:axId val="198474368"/>
+        <c:gapWidth val="20"/>
+        <c:axId val="197334144"/>
+        <c:axId val="197335680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198472832"/>
+        <c:axId val="197334144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Submission Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198474368"/>
+        <c:crossAx val="197335680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="24"/>
-        <c:tickMarkSkip val="24"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198474368"/>
+        <c:axId val="197335680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Posts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198472832"/>
+        <c:crossAx val="197334144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6490,11 +3799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198491520"/>
-        <c:axId val="198518272"/>
+        <c:axId val="197377408"/>
+        <c:axId val="197404160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198491520"/>
+        <c:axId val="197377408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6507,10 +3816,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Number of Comments</a:t>
                 </a:r>
               </a:p>
@@ -6523,12 +3832,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198518272"/>
+        <c:crossAx val="197404160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198518272"/>
+        <c:axId val="197404160"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6542,10 +3851,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Position</a:t>
                 </a:r>
               </a:p>
@@ -6558,7 +3867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198491520"/>
+        <c:crossAx val="197377408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9661,11 +6970,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199055232"/>
-        <c:axId val="199057408"/>
+        <c:axId val="198858624"/>
+        <c:axId val="198860800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199055232"/>
+        <c:axId val="198858624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9678,17 +6987,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> (s) Since Day Began</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9699,12 +7008,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199057408"/>
+        <c:crossAx val="198860800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199057408"/>
+        <c:axId val="198860800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9718,10 +7027,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Zi</a:t>
                 </a:r>
               </a:p>
@@ -9734,7 +7043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199055232"/>
+        <c:crossAx val="198858624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9756,19 +7065,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9790,20 +7099,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10178,10 +7487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E9"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10191,215 +7500,269 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>731</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(A2:A501)</f>
+        <v>941.32799999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1301</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE(A2:A501)</f>
-        <v>941.32799999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>MEDIAN(A2:A501)</f>
+        <v>569.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>418</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f>MEDIAN(A2:A501)</f>
-        <v>569.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.MODE.SNGL(A2:A501)</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <f>_xlfn.MODE.SNGL(A2:A501)</f>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <f>MIN(A2:A501)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>642</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <f>MIN(A2:A501)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <f>MAX(A2:A501)</f>
+        <v>13654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>809</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <f>MAX(A2:A501)</f>
-        <v>13654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>MAX(A2:A501)-MIN(A2:A501)</f>
+        <v>13632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>189</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <f>MAX(A2:A501)-MIN(A2:A501)</f>
-        <v>13632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.STDEV.S(A2:A501)</f>
+        <v>1255.3204991264399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>251</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <f>_xlfn.STDEV.S(A2:A501)</f>
-        <v>1255.3204991264399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2621</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1525</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2146</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>478</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>377</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>405</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>570</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1917</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>696</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>729</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>699</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>687</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1487</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2410</v>
       </c>
@@ -12750,6 +10113,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="K3:K30">
+    <sortCondition ref="K3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12760,23 +10126,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12784,7 +10150,7 @@
         <v>85619</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>AVERAGE(A2:A501)</f>
@@ -12796,7 +10162,7 @@
         <v>57799</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f>MEDIAN(A2:A501)</f>
@@ -12808,7 +10174,7 @@
         <v>15588</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f>_xlfn.MODE.SNGL(A2:A501)</f>
@@ -12820,7 +10186,7 @@
         <v>23283</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <f>MIN(A2:A501)</f>
@@ -12832,7 +10198,7 @@
         <v>6453</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <f>MAX(A2:A501)</f>
@@ -12844,7 +10210,7 @@
         <v>12858</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f>MAX(A2:A501)-MIN(A2:A501)</f>
@@ -12856,7 +10222,7 @@
         <v>66030</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f>_xlfn.STDEV.S(A2:A501)</f>
@@ -12873,7 +10239,7 @@
         <v>86218</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>49245</v>
       </c>
@@ -12882,103 +10248,181 @@
       <c r="A12">
         <v>60858</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>36378</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>68863</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22641</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>49700</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30577</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>39253</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>54282</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64385</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31375</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>42829</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22869</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>56224</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>60448</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26758</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>65189</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>60287</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>762</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2402</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>73843</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>72817</v>
       </c>
@@ -15329,6 +12773,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="C13:C23">
+    <sortCondition ref="C3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -15340,20 +12787,21 @@
   <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -19367,7 +16815,7 @@
   <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19377,16 +16825,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -27403,29 +24851,36 @@
   <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -29957,15 +27412,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -29973,19 +27428,20 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
